--- a/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>TCID</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Gbworkflow</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>GBUpdate</t>
@@ -602,7 +599,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,9 +638,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -653,16 +652,16 @@
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -693,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection sqref="A1:AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +728,7 @@
     <col min="30" max="30" customWidth="true" width="27.28515625" collapsed="true"/>
     <col min="31" max="31" customWidth="true" width="18.0" collapsed="true"/>
     <col min="32" max="33" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -904,10 +903,10 @@
         <v>2017</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Z2" s="5">
         <v>2017</v>
@@ -934,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AJ2" s="5"/>
     </row>
@@ -948,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,10 +977,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>

--- a/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,11 +667,9 @@
         <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -692,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
@@ -955,7 +956,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="GBCreation" sheetId="3" r:id="rId2"/>
-    <sheet name="GBUpdate" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>TCID</t>
   </si>
@@ -123,9 +122,6 @@
     <t>ABC News</t>
   </si>
   <si>
-    <t>Statement of Work - ABC</t>
-  </si>
-  <si>
     <t>Executive Steering Committee</t>
   </si>
   <si>
@@ -147,21 +143,9 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Mainframe Services</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
     <t>APAC</t>
   </si>
   <si>
-    <t>Administrative Concerns</t>
-  </si>
-  <si>
     <t>A simple space to triage any administrative and logistical issues to take into account for the meeting</t>
   </si>
   <si>
@@ -174,9 +158,6 @@
     <t>gbEffectiveDateYear</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>gbLocation</t>
   </si>
   <si>
@@ -186,19 +167,43 @@
     <t>Gbworkflow</t>
   </si>
   <si>
-    <t>GBUpdate</t>
-  </si>
-  <si>
-    <t>This is updated GB Title</t>
-  </si>
-  <si>
-    <t>This is updated GB Description</t>
+    <t>Master Service Agreement - ABC News</t>
+  </si>
+  <si>
+    <t>Administrative Concerns - ABC News</t>
+  </si>
+  <si>
+    <t>IT;
+Human Resources</t>
+  </si>
+  <si>
+    <t>Applications Development &amp; Maintenance;
+End-User Computing</t>
+  </si>
+  <si>
+    <t>Afghanistan;
+Akrotiri;
+Albania;
+Algeria;
+American Samoa;
+Andorra;
+Angola;
+Anguilla;
+Antarctica;
+Antigua and Barbuda;
+Argentina;
+Armenia;
+Aruba;
+Ashmore and Cartier Islands;
+Australia;
+Austria;
+Azerbaijan</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -246,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -269,32 +274,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,16 +604,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
   </cols>
@@ -644,44 +649,20 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,307 +672,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="57.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="32" max="33" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="34.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="28.42578125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" style="6" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="16.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="12.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="17.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="15.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="16.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="14.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="17.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="10.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="10.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="18.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="18.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="19.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="21.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="19.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="18.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="10.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="12.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="9.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="7.48828125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="5.28515625" collapsed="true"/>
+    <col min="37" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="V1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" s="4" t="s">
+      <c r="Z1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AG1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
-      </c>
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="L3" s="4">
         <v>15</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M3" s="4">
         <v>2</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N3" s="4">
         <v>2017</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O3" s="4">
         <v>30</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P3" s="4">
         <v>3</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q3" s="4">
         <v>2017</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="X3" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="V2" t="s">
+      <c r="AF3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="X2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="5"/>
+      <c r="AI3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>TCID</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Governance Body Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>TCID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t>ABC News</t>
-  </si>
-  <si>
     <t>Executive Steering Committee</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>Gbworkflow</t>
-  </si>
-  <si>
-    <t>Master Service Agreement - ABC News</t>
   </si>
   <si>
     <t>Administrative Concerns - ABC News</t>
@@ -200,13 +194,16 @@
 Azerbaijan</t>
   </si>
   <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Master Service Agreement - HSBC</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -657,10 +654,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -679,7 +676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -739,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>11</v>
@@ -787,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>26</v>
@@ -799,13 +796,13 @@
         <v>28</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>29</v>
@@ -820,7 +817,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>2</v>
@@ -874,33 +871,33 @@
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="L3" s="4">
         <v>15</v>
@@ -921,15 +918,15 @@
         <v>2017</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W3" s="4">
         <v>2017</v>
@@ -950,16 +947,16 @@
         <v>30</v>
       </c>
       <c r="AC3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4" t="s">
